--- a/class_diagram/after/service/interviewer/面談予約システム_クラス図 (service.interviewer).xlsx
+++ b/class_diagram/after/service/interviewer/面談予約システム_クラス図 (service.interviewer).xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\interviewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39EBFF8-1C48-4415-9419-34439C6A6DE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{C39EBFF8-1C48-4415-9419-34439C6A6DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EFE7D97-9FB8-4054-9448-0FC49D844D2D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginService" sheetId="1" r:id="rId1"/>
+    <sheet name="InterviewerGetService" sheetId="2" r:id="rId1"/>
+    <sheet name="ReservationsGetService" sheetId="3" r:id="rId2"/>
+    <sheet name="LoginService" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,10 +27,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -57,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +137,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -150,8 +159,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEBC7"/>
       <color rgb="FF91A5C4"/>
-      <color rgb="FFFFEBC7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -166,6 +175,1219 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C375D0E7-AEB3-05C2-3EC1-C1F20D378E6D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A6E43E10-8335-4693-9982-68E95E02C2B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="2181225"/>
+          <a:ext cx="5876925" cy="4152900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>InterviewerGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FC4F3F-8005-4982-BFC4-43FAEC1801A3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2BA1C498-1F31-4425-B048-870731B5AA28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="3590925"/>
+          <a:ext cx="3571875" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : InterviewersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E43E10-8335-4693-9982-68E95E02C2B4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EFA0291F-9035-4ACA-86F5-B521D73A42B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229474" y="5153024"/>
+          <a:ext cx="3971925" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getInterviewerById(id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Optional&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Interviewer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D9FBF1-4738-9486-6375-63DA81FEBD3C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{85007648-1485-4F2C-A974-8FB228838306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="2771775"/>
+          <a:ext cx="6762750" cy="5667375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationsGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C4C3E9-2FAE-45C8-8370-EE7A830B8E8E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{30CC388B-0869-45C6-AB25-A3BD06FC787D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="7715250"/>
+          <a:ext cx="5038725" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationsByInterviewerId( i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>nterviewerId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- List&lt;Reservation&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B97636-AD05-4826-847D-1471009E342E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{78C4C3E9-2FAE-45C8-8370-EE7A830B8E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="8505825"/>
+          <a:ext cx="5038725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservationPastsBy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>InterviewerId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>( i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>nterviewerId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-- List&lt;ReservationPast&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85007648-1485-4F2C-A974-8FB228838306}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C0B97636-AD05-4826-847D-1471009E342E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="4371975"/>
+          <a:ext cx="5038725" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ReservationsRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -641,231 +1863,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E9C3D0-965A-4133-A45B-43BD11BF9788}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8AFDAC4A-F9D5-49D4-A6E4-A564A3A95CFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7229474" y="5153024"/>
-          <a:ext cx="3971925" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getInterviewerById(id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : int)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r Optional&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Interviewer</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -884,7 +1881,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C08F9F9-B2BB-42E1-82C7-FA2BBEF45F51}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{06BF7240-FDB2-41C1-A0F5-66579A2F96DC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{36E9C3D0-965A-4133-A45B-43BD11BF9788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1036,19 +2033,18 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getReservationsByInterviewerId( </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>InterviewerId</a:t>
+            <a:t>getReservationsByInterviewerId( i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>nterviewerId</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
@@ -1259,17 +2255,16 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getPastReservationsBy</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+            <a:t>getReservationPastsBy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
             </a:rPr>
             <a:t>InterviewerId</a:t>
           </a:r>
@@ -1280,19 +2275,18 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>( </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>InterviewerId</a:t>
+            <a:t>( i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>nterviewerId</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
@@ -1331,6 +2325,23 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1649,46 +2660,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C2CE4B-D747-4E9C-874C-F47CC1ABA946}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15" ht="18.75">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15" ht="18.75">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F1D42F-F0CF-4ECD-81BF-77C35D4F2EFB}">
+  <dimension ref="F20:Q105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:17" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:17" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="8:17">
+      <c r="Q43" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="J11" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/service/interviewer/面談予約システム_クラス図 (service.interviewer).xlsx
+++ b/class_diagram/after/service/interviewer/面談予約システム_クラス図 (service.interviewer).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\interviewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{C39EBFF8-1C48-4415-9419-34439C6A6DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EFE7D97-9FB8-4054-9448-0FC49D844D2D}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{C39EBFF8-1C48-4415-9419-34439C6A6DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4302D1E4-4A6F-46EF-BACA-4F25F51A97E0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InterviewerGetService" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -50,6 +50,12 @@
   <si>
     <t xml:space="preserve"> メソッド</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返り値</t>
+  </si>
+  <si>
+    <t>Optional&lt;Interviewer&gt; → Interviewer に変更</t>
   </si>
   <si>
     <t xml:space="preserve"> アクター別パッケージ名</t>
@@ -1855,470 +1861,6 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C08F9F9-B2BB-42E1-82C7-FA2BBEF45F51}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{36E9C3D0-965A-4133-A45B-43BD11BF9788}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7210425" y="7410450"/>
-          <a:ext cx="5038725" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationsByInterviewerId( i</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>nterviewerId</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : int )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- List&lt;Reservation&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1511947-3E91-404D-92D2-DB11A475E5D3}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6C08F9F9-B2BB-42E1-82C7-FA2BBEF45F51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7219950" y="8172450"/>
-          <a:ext cx="5038725" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationPastsBy</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>InterviewerId</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>( i</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>nterviewerId</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : int )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>-- List&lt;ReservationPast&gt;</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2663,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C2CE4B-D747-4E9C-874C-F47CC1ABA946}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2675,16 +2217,24 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:11" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:11" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11">
+      <c r="J38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="12:15" ht="18.75">
@@ -2702,7 +2252,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2717,7 +2267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F1D42F-F0CF-4ECD-81BF-77C35D4F2EFB}">
   <dimension ref="F20:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -2761,7 +2311,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2777,7 +2327,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="J11" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2800,6 +2350,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="49" spans="12:15">
+      <c r="L49" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -2815,7 +2373,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/class_diagram/after/service/interviewer/面談予約システム_クラス図 (service.interviewer).xlsx
+++ b/class_diagram/after/service/interviewer/面談予約システム_クラス図 (service.interviewer).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29622"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\interviewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{C39EBFF8-1C48-4415-9419-34439C6A6DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4302D1E4-4A6F-46EF-BACA-4F25F51A97E0}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{C39EBFF8-1C48-4415-9419-34439C6A6DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E207EBD-AD37-458C-9A9B-2E19119FA99A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InterviewerGetService" sheetId="2" r:id="rId1"/>
     <sheet name="ReservationsGetService" sheetId="3" r:id="rId2"/>
     <sheet name="LoginService" sheetId="1" r:id="rId3"/>
+    <sheet name="ReservationGetService" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -58,7 +59,28 @@
     <t>Optional&lt;Interviewer&gt; → Interviewer に変更</t>
   </si>
   <si>
+    <t>メソッド名</t>
+  </si>
+  <si>
+    <t>getInterviewerById → getInterviewer に変更</t>
+  </si>
+  <si>
     <t xml:space="preserve"> アクター別パッケージ名</t>
+  </si>
+  <si>
+    <t>getInterviewerByEmail → getInterviewer に変更</t>
+  </si>
+  <si>
+    <t>　--r 返り値のデータ型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> メソッド</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -767,7 +789,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C4C3E9-2FAE-45C8-8370-EE7A830B8E8E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{30CC388B-0869-45C6-AB25-A3BD06FC787D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{12D9FBF1-4738-9486-6375-63DA81FEBD3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +941,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getReservationsByInterviewerId( i</a:t>
+            <a:t>getReservations( i</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0">
@@ -1141,27 +1163,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getReservationPastsBy</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>InterviewerId</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>( i</a:t>
+            <a:t>getReservationPasts( i</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0">
@@ -1861,6 +1863,728 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DAD2D43-18D2-4E0F-84A6-C54BAD415F10}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="2324100"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63EB4FF-B29A-43E6-BAD3-4C84E6551953}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0DAD2D43-18D2-4E0F-84A6-C54BAD415F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3590925"/>
+          <a:ext cx="3590925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : UsersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB3477B-9B6B-4135-8BE0-B471CAA7A3C2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F63EB4FF-B29A-43E6-BAD3-4C84E6551953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="5791200"/>
+          <a:ext cx="5038725" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation( id :  Integer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Reservation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FE9DC7-584B-4C58-BE7F-5DAE3EFE3462}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FDB3477B-9B6B-4135-8BE0-B471CAA7A3C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="3543300"/>
+          <a:ext cx="3752850" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ReservationsRepository</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2205,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C2CE4B-D747-4E9C-874C-F47CC1ABA946}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2237,6 +2961,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="39" spans="8:11">
+      <c r="J39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="52" spans="12:15" ht="18.75">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -2252,7 +2984,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2267,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F1D42F-F0CF-4ECD-81BF-77C35D4F2EFB}">
   <dimension ref="F20:Q105"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2311,7 +3043,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2326,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="J11" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView topLeftCell="J43" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2358,6 +3090,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="50" spans="12:15">
+      <c r="L50" t="s">
+        <v>5</v>
+      </c>
+      <c r="M50" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -2373,7 +3113,7 @@
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2382,4 +3122,59 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FECF3D2-3E13-433A-B003-CE8401E1F97D}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="24">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>